--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09420290000000001</v>
+        <v>0.08943089999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.1526323</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08080809999999999</v>
+        <v>0.07692309999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0854654</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.125</v>
+        <v>0.1132075</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.195942</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1654135</v>
+        <v>0.147541</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.2221305</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0512821</v>
+        <v>0.0454545</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.0305143</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0062112</v>
+        <v>0.0064103</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.0009529</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1551724</v>
+        <v>0.1153846</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.1521832</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1111111</v>
+        <v>0.1020408</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.1982402</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0194175</v>
+        <v>0.0153061</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0071663</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0576923</v>
+        <v>0.0408163</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.0483852</v>
       </c>
     </row>
   </sheetData>
